--- a/data/mapping_product_group_EAT.xlsx
+++ b/data/mapping_product_group_EAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\SOFA 2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A2FE2-F21B-4D91-9DF9-F6BF76ECA0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76D4399-71A9-4D5B-B862-506300D781B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,12 +498,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -562,13 +574,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +953,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -946,7 +961,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -954,7 +969,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -962,7 +977,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -992,7 +1007,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1011,7 +1026,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1046,7 +1061,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1054,7 +1069,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1097,7 +1112,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1225,7 +1240,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1233,7 +1248,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1279,7 +1294,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1350,7 +1365,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1383,7 +1398,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1429,7 +1444,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1453,7 +1468,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1461,7 +1476,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1480,7 +1495,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1575,7 +1590,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -1583,7 +1598,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -1602,7 +1617,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1694,7 +1709,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -1705,7 +1720,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -1713,7 +1728,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -1751,7 +1766,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -1759,7 +1774,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -1767,7 +1782,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -1835,7 +1850,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -1843,7 +1858,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -1862,7 +1877,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -1881,7 +1896,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -1889,7 +1904,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
